--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Eclipse\buihanh-doanTN-BDD\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC693874-D861-4606-A4A8-79BE4EF04EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595567BA-338D-4E52-AAF5-4E29E39C6E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{75CF3F1D-0703-47F5-BB1E-68C20369DD61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
   <si>
     <t>email</t>
   </si>
@@ -266,10 +266,7 @@
     <t>actual_result</t>
   </si>
   <si>
-    <t>‪C:\Users\Admin\Downloads\Code 3.pdf</t>
-  </si>
-  <si>
-    <t>‪C:\Users\Admin\Downloads\Ôn tập.pptx</t>
+    <t>‪C:\Users\Admin\Downloads\10. Cucumber.pdf</t>
   </si>
 </sst>
 </file>
@@ -891,7 +888,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1078,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8EA73B-AD68-42CD-873D-B64C5E7CA622}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1153,18 +1150,6 @@
         <v>29</v>
       </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/data/data.xlsx
+++ b/src/test/resources/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Eclipse\buihanh-doanTN-BDD\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595567BA-338D-4E52-AAF5-4E29E39C6E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ABECA9-76B6-410F-AEE4-2685131A7738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{75CF3F1D-0703-47F5-BB1E-68C20369DD61}"/>
   </bookViews>
@@ -266,7 +266,7 @@
     <t>actual_result</t>
   </si>
   <si>
-    <t>‪C:\Users\Admin\Downloads\10. Cucumber.pdf</t>
+    <t>D:\project_export.zip</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1147,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1"/>
     </row>
